--- a/biology/Médecine/1381_en_santé_et_médecine/1381_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1381_en_santé_et_médecine/1381_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1381_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1381_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1381 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1381_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1381_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation d'un hôpital à Rodez, capitale du Rouergue, par Déodat de Laparra[1].
-Construction d'un hôpital pour les pauvres à Saint-Amand, en Périgord noir[2].
-Craignant que l'hôpital Saint-André, à Gaillac, ne soit repris par les Anglais, les consuls le font démolir, et seront excommuniés pour s'être passés de l'autorisation du pape[3].
-Les nouveaux statuts des apothicaires de Perpignan, en Roussillon, excluent de leur corporation les simples épiciers[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation d'un hôpital à Rodez, capitale du Rouergue, par Déodat de Laparra.
+Construction d'un hôpital pour les pauvres à Saint-Amand, en Périgord noir.
+Craignant que l'hôpital Saint-André, à Gaillac, ne soit repris par les Anglais, les consuls le font démolir, et seront excommuniés pour s'être passés de l'autorisation du pape.
+Les nouveaux statuts des apothicaires de Perpignan, en Roussillon, excluent de leur corporation les simples épiciers.
 L'apothicairerie des dominicains de Santa Maria Novella, à Florence, vend de l'eau de rose, qui s'utilise comme protection contre la peste.
-Un hôpital est attesté à Ambérieu, « sur la route de Lyon à Genève qui passait par Montluel et Loyes pour rejoindre le Rhône à Seyssel[5] ».
-Avant 1381 : installation de l'hôpital Saint-Loup à Villefranche, dans la province du Rouergue[6].</t>
+Un hôpital est attesté à Ambérieu, « sur la route de Lyon à Genève qui passait par Montluel et Loyes pour rejoindre le Rhône à Seyssel ».
+Avant 1381 : installation de l'hôpital Saint-Loup à Villefranche, dans la province du Rouergue.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1381_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1381_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin espagnol Estéfano de Sevilla rédige directement en castillan son traité scientifique et didactique intitulé Libro de visita y consejo de médicos[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin espagnol Estéfano de Sevilla rédige directement en castillan son traité scientifique et didactique intitulé Libro de visita y consejo de médicos,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1381_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1381_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hua Shou (né en 1304), médecin chinois[9], auteur du Shi Si Jing Fa Hui (vers 1341) et du Nanjing Benyi (1361).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hua Shou (né en 1304), médecin chinois, auteur du Shi Si Jing Fa Hui (vers 1341) et du Nanjing Benyi (1361).</t>
         </is>
       </c>
     </row>
